--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE97223A-B551-4D46-9F4D-43961E5EC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19453B75-4BE4-46A8-A6D1-75D0038F7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="12690" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -496,7 +496,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -535,7 +535,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -665,7 +665,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -756,7 +756,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -782,7 +782,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -795,7 +795,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -873,24 +873,11 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2054</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+        <v>2055</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
         <v>2056</v>
       </c>
     </row>
@@ -902,10 +889,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +939,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -965,7 +952,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -978,7 +965,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -991,7 +978,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1004,7 +991,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1017,7 +1004,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1030,7 +1017,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1043,7 +1030,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1056,7 +1043,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1069,7 +1056,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1082,7 +1069,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1095,7 +1082,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1108,7 +1095,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1121,7 +1108,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1134,7 +1121,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1147,7 +1134,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1160,7 +1147,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1173,7 +1160,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1186,7 +1173,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1199,7 +1186,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1212,7 +1199,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1225,7 +1212,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1238,7 +1225,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1251,7 +1238,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1264,7 +1251,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1277,7 +1264,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1290,7 +1277,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1303,7 +1290,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1316,7 +1303,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1329,7 +1316,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1342,7 +1329,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1355,7 +1342,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1368,19 +1355,6 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2056</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
         <v>2057</v>
       </c>
     </row>

--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19453B75-4BE4-46A8-A6D1-75D0038F7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E53E5-5B3C-4BD3-96D0-CEABA23466D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -429,27 +429,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -879,6 +869,11 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -892,20 +887,13 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E53E5-5B3C-4BD3-96D0-CEABA23466D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E4092-BAB2-44E1-84D9-3B61D144B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12570" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="10690" yWindow="7090" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,28 @@
     <t>year</t>
   </si>
   <si>
-    <t>Roth X</t>
-  </si>
-  <si>
-    <t>ctrb taxable</t>
-  </si>
-  <si>
-    <t>ctrb 401k</t>
-  </si>
-  <si>
-    <t>ctrb Roth 401k</t>
-  </si>
-  <si>
-    <t>ctrb IRA</t>
-  </si>
-  <si>
-    <t>ctrb Roth IRA</t>
-  </si>
-  <si>
     <t>anticipated wages</t>
   </si>
   <si>
     <t>big-ticket items</t>
+  </si>
+  <si>
+    <t>Roth conv</t>
+  </si>
+  <si>
+    <t>taxable ctrb</t>
+  </si>
+  <si>
+    <t>401k ctrb</t>
+  </si>
+  <si>
+    <t>Roth 401k ctrb</t>
+  </si>
+  <si>
+    <t>IRA ctrb</t>
+  </si>
+  <si>
+    <t>Roth IRA ctrb</t>
   </si>
 </sst>
 </file>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +440,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,33 +450,33 @@
     <col min="10" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,7 +895,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,33 +904,33 @@
     <col min="2" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E4092-BAB2-44E1-84D9-3B61D144B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910CC21A-4361-45DE-9D3D-F9467D84AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10690" yWindow="7090" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -494,7 +494,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -546,7 +546,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -624,7 +624,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -637,7 +637,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -702,7 +702,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -793,7 +793,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -806,7 +806,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -819,7 +819,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -832,7 +832,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -858,7 +858,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -871,16 +871,81 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>2055</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>2056</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>2057</v>
       </c>
     </row>
@@ -892,10 +957,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +1000,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -948,7 +1013,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -961,7 +1026,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -974,7 +1039,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -987,7 +1052,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1000,7 +1065,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1013,7 +1078,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1026,7 +1091,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1039,7 +1104,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1052,7 +1117,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1065,7 +1130,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1078,7 +1143,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1091,7 +1156,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1104,7 +1169,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1117,7 +1182,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1130,7 +1195,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1143,7 +1208,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1156,7 +1221,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1169,7 +1234,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1182,7 +1247,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1195,7 +1260,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1208,7 +1273,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1221,7 +1286,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1234,7 +1299,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1247,7 +1312,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1260,7 +1325,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1273,7 +1338,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1286,7 +1351,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1299,7 +1364,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1312,7 +1377,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1325,7 +1390,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1338,7 +1403,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1351,6 +1416,71 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>2057</v>
       </c>
     </row>

--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910CC21A-4361-45DE-9D3D-F9467D84AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6FF884-0654-4774-A72A-79C818C8912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
     <sheet name="Sam" sheetId="2" r:id="rId2"/>
+    <sheet name="Debts" sheetId="3" r:id="rId3"/>
+    <sheet name="Fixed Assets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>Roth IRA ctrb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>yod</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -117,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,14 +473,14 @@
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="13" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -492,7 +522,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -505,7 +535,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -518,7 +548,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -531,7 +561,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -544,7 +574,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2025</v>
       </c>
@@ -557,7 +587,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -570,7 +600,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2027</v>
       </c>
@@ -583,7 +613,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -596,7 +626,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2029</v>
       </c>
@@ -609,7 +639,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -622,7 +652,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2031</v>
       </c>
@@ -635,7 +665,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -648,7 +678,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2033</v>
       </c>
@@ -661,7 +691,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -674,7 +704,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2035</v>
       </c>
@@ -687,7 +717,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -700,7 +730,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2037</v>
       </c>
@@ -713,7 +743,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -726,7 +756,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2039</v>
       </c>
@@ -739,7 +769,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -752,7 +782,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2041</v>
       </c>
@@ -765,7 +795,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -778,7 +808,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2043</v>
       </c>
@@ -791,7 +821,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -804,7 +834,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2045</v>
       </c>
@@ -817,7 +847,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -830,7 +860,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2047</v>
       </c>
@@ -843,7 +873,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -856,7 +886,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2049</v>
       </c>
@@ -869,7 +899,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -882,7 +912,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2051</v>
       </c>
@@ -895,7 +925,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2052</v>
       </c>
@@ -908,7 +938,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2053</v>
       </c>
@@ -921,7 +951,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2054</v>
       </c>
@@ -934,17 +964,17 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2055</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2056</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2057</v>
       </c>
@@ -959,17 +989,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -1011,7 +1041,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -1024,7 +1054,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -1037,7 +1067,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -1050,7 +1080,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -1063,7 +1093,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2025</v>
       </c>
@@ -1076,7 +1106,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -1089,7 +1119,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2027</v>
       </c>
@@ -1102,7 +1132,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2028</v>
       </c>
@@ -1115,7 +1145,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2029</v>
       </c>
@@ -1128,7 +1158,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2030</v>
       </c>
@@ -1141,7 +1171,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2031</v>
       </c>
@@ -1154,7 +1184,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2032</v>
       </c>
@@ -1167,7 +1197,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2033</v>
       </c>
@@ -1180,7 +1210,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2034</v>
       </c>
@@ -1193,7 +1223,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2035</v>
       </c>
@@ -1206,7 +1236,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2036</v>
       </c>
@@ -1219,7 +1249,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2037</v>
       </c>
@@ -1232,7 +1262,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2038</v>
       </c>
@@ -1245,7 +1275,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2039</v>
       </c>
@@ -1258,7 +1288,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2040</v>
       </c>
@@ -1271,7 +1301,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2041</v>
       </c>
@@ -1284,7 +1314,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2042</v>
       </c>
@@ -1297,7 +1327,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2043</v>
       </c>
@@ -1310,7 +1340,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2044</v>
       </c>
@@ -1323,7 +1353,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2045</v>
       </c>
@@ -1336,7 +1366,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2046</v>
       </c>
@@ -1349,7 +1379,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2047</v>
       </c>
@@ -1362,7 +1392,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2048</v>
       </c>
@@ -1375,7 +1405,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2049</v>
       </c>
@@ -1388,7 +1418,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2050</v>
       </c>
@@ -1401,7 +1431,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2051</v>
       </c>
@@ -1414,7 +1444,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2052</v>
       </c>
@@ -1427,7 +1457,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2053</v>
       </c>
@@ -1440,7 +1470,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2054</v>
       </c>
@@ -1453,7 +1483,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2055</v>
       </c>
@@ -1466,7 +1496,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2056</v>
       </c>
@@ -1479,9 +1509,87 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD187F59-1647-4D73-8093-0AE560367B14}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967B50-0BFD-4B90-89C4-6D1438446B29}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
